--- a/doc/data/export_capacity_rate_all.xlsx
+++ b/doc/data/export_capacity_rate_all.xlsx
@@ -53,74 +53,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -427,14 +359,34 @@
           <t>Paper # 14</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Paper # 19</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Paper # 2</t>
+        </is>
+      </c>
       <c r="L1" t="inlineStr">
         <is>
+          <t>Paper # 29</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Paper # 3</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Paper # 31</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
           <t>Paper # 32</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Paper # 2</t>
         </is>
       </c>
     </row>
@@ -446,57 +398,42 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>set # 1</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>set #1</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>set #2</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>set #1</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>set #2</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>set #1</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>set #2</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>set #3</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>set #1</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>set # 1</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>set #1</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>set #1</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>set #2</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>set #1</t>
         </is>
       </c>
     </row>
@@ -637,91 +574,91 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>144.349315068493</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>159.615384615384</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>332.354562415196</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>314.79816824966</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>116.307982508788</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="O5" t="n">
+        <v>337.4948498472385</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
         <v>299.017267225584</v>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="G5" t="n">
+      <c r="S5" t="n">
         <v>272.404371584699</v>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="I5" t="n">
+      <c r="U5" t="n">
         <v>154.15432381534</v>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="K5" t="n">
+      <c r="W5" t="n">
         <v>147.303751962058</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="X5" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="M5" t="n">
+      <c r="Y5" t="n">
         <v>144.812818769126</v>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O5" t="n">
-        <v>159.615384615384</v>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Q5" t="n">
-        <v>144.349315068493</v>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="S5" t="n">
-        <v>337.4948498472385</v>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U5" t="n">
-        <v>332.354562415196</v>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="W5" t="n">
-        <v>314.79816824966</v>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Y5" t="n">
-        <v>116.307982508788</v>
       </c>
     </row>
     <row r="6">
@@ -734,85 +671,85 @@
       <c r="C6" t="n">
         <v/>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" t="n">
+        <v/>
+      </c>
+      <c r="E6" t="n">
+        <v/>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>159.265734265734</v>
+      </c>
+      <c r="H6" t="n">
+        <v/>
+      </c>
+      <c r="I6" t="n">
+        <v/>
+      </c>
+      <c r="J6" t="n">
+        <v/>
+      </c>
+      <c r="K6" t="n">
+        <v/>
+      </c>
+      <c r="L6" t="n">
+        <v/>
+      </c>
+      <c r="M6" t="n">
+        <v/>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>331.593507225865</v>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="Q6" t="n">
         <v>243.146549330964</v>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G6" t="n">
+      <c r="S6" t="n">
         <v>205.74092689968</v>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="I6" t="n">
+      <c r="U6" t="n">
         <v>149.841197129332</v>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="K6" t="n">
+      <c r="W6" t="n">
         <v>139.399821094026</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M6" t="n">
+      <c r="Y6" t="n">
         <v>135.372662359741</v>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O6" t="n">
-        <v>159.265734265734</v>
-      </c>
-      <c r="P6" t="n">
-        <v/>
-      </c>
-      <c r="Q6" t="n">
-        <v/>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S6" t="n">
-        <v>331.593507225865</v>
-      </c>
-      <c r="T6" t="n">
-        <v/>
-      </c>
-      <c r="U6" t="n">
-        <v/>
-      </c>
-      <c r="V6" t="n">
-        <v/>
-      </c>
-      <c r="W6" t="n">
-        <v/>
-      </c>
-      <c r="X6" t="n">
-        <v/>
-      </c>
-      <c r="Y6" t="n">
-        <v/>
       </c>
     </row>
     <row r="7">
@@ -825,83 +762,83 @@
       <c r="C7" t="n">
         <v/>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" t="n">
+        <v/>
+      </c>
+      <c r="E7" t="n">
+        <v/>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>145.041988487321</v>
+      </c>
+      <c r="H7" t="n">
+        <v/>
+      </c>
+      <c r="I7" t="n">
+        <v/>
+      </c>
+      <c r="J7" t="n">
+        <v/>
+      </c>
+      <c r="K7" t="n">
+        <v/>
+      </c>
+      <c r="L7" t="n">
+        <v/>
+      </c>
+      <c r="M7" t="n">
+        <v/>
+      </c>
+      <c r="N7" t="n">
+        <v/>
+      </c>
+      <c r="O7" t="n">
+        <v/>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E7" t="n">
+      <c r="Q7" t="n">
         <v>80.641691188718</v>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="G7" t="n">
+      <c r="S7" t="n">
         <v>129.867125476853</v>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="I7" t="n">
+      <c r="U7" t="n">
         <v>141.685171854663</v>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="K7" t="n">
+      <c r="W7" t="n">
         <v>118.804435517899</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M7" t="n">
+      <c r="Y7" t="n">
         <v>116.264875892553</v>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="O7" t="n">
-        <v>145.041988487321</v>
-      </c>
-      <c r="P7" t="n">
-        <v/>
-      </c>
-      <c r="Q7" t="n">
-        <v/>
-      </c>
-      <c r="R7" t="n">
-        <v/>
-      </c>
-      <c r="S7" t="n">
-        <v/>
-      </c>
-      <c r="T7" t="n">
-        <v/>
-      </c>
-      <c r="U7" t="n">
-        <v/>
-      </c>
-      <c r="V7" t="n">
-        <v/>
-      </c>
-      <c r="W7" t="n">
-        <v/>
-      </c>
-      <c r="X7" t="n">
-        <v/>
-      </c>
-      <c r="Y7" t="n">
-        <v/>
       </c>
     </row>
     <row r="8">
@@ -926,65 +863,65 @@
       <c r="G8" t="n">
         <v/>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H8" t="n">
+        <v/>
+      </c>
+      <c r="I8" t="n">
+        <v/>
+      </c>
+      <c r="J8" t="n">
+        <v/>
+      </c>
+      <c r="K8" t="n">
+        <v/>
+      </c>
+      <c r="L8" t="n">
+        <v/>
+      </c>
+      <c r="M8" t="n">
+        <v/>
+      </c>
+      <c r="N8" t="n">
+        <v/>
+      </c>
+      <c r="O8" t="n">
+        <v/>
+      </c>
+      <c r="P8" t="n">
+        <v/>
+      </c>
+      <c r="Q8" t="n">
+        <v/>
+      </c>
+      <c r="R8" t="n">
+        <v/>
+      </c>
+      <c r="S8" t="n">
+        <v/>
+      </c>
+      <c r="T8" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="I8" t="n">
+      <c r="U8" t="n">
         <v>110.398825792084</v>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="K8" t="n">
+      <c r="W8" t="n">
         <v>65.7803507232189</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="M8" t="n">
+      <c r="Y8" t="n">
         <v>48.4777286637198</v>
-      </c>
-      <c r="N8" t="n">
-        <v/>
-      </c>
-      <c r="O8" t="n">
-        <v/>
-      </c>
-      <c r="P8" t="n">
-        <v/>
-      </c>
-      <c r="Q8" t="n">
-        <v/>
-      </c>
-      <c r="R8" t="n">
-        <v/>
-      </c>
-      <c r="S8" t="n">
-        <v/>
-      </c>
-      <c r="T8" t="n">
-        <v/>
-      </c>
-      <c r="U8" t="n">
-        <v/>
-      </c>
-      <c r="V8" t="n">
-        <v/>
-      </c>
-      <c r="W8" t="n">
-        <v/>
-      </c>
-      <c r="X8" t="n">
-        <v/>
-      </c>
-      <c r="Y8" t="n">
-        <v/>
       </c>
     </row>
     <row r="9">
@@ -1009,65 +946,65 @@
       <c r="G9" t="n">
         <v/>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H9" t="n">
+        <v/>
+      </c>
+      <c r="I9" t="n">
+        <v/>
+      </c>
+      <c r="J9" t="n">
+        <v/>
+      </c>
+      <c r="K9" t="n">
+        <v/>
+      </c>
+      <c r="L9" t="n">
+        <v/>
+      </c>
+      <c r="M9" t="n">
+        <v/>
+      </c>
+      <c r="N9" t="n">
+        <v/>
+      </c>
+      <c r="O9" t="n">
+        <v/>
+      </c>
+      <c r="P9" t="n">
+        <v/>
+      </c>
+      <c r="Q9" t="n">
+        <v/>
+      </c>
+      <c r="R9" t="n">
+        <v/>
+      </c>
+      <c r="S9" t="n">
+        <v/>
+      </c>
+      <c r="T9" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="I9" t="n">
+      <c r="U9" t="n">
         <v>153.813813813813</v>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="K9" t="n">
+      <c r="W9" t="n">
         <v>147.077925365828</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="M9" t="n">
+      <c r="Y9" t="n">
         <v>144.585345120707</v>
-      </c>
-      <c r="N9" t="n">
-        <v/>
-      </c>
-      <c r="O9" t="n">
-        <v/>
-      </c>
-      <c r="P9" t="n">
-        <v/>
-      </c>
-      <c r="Q9" t="n">
-        <v/>
-      </c>
-      <c r="R9" t="n">
-        <v/>
-      </c>
-      <c r="S9" t="n">
-        <v/>
-      </c>
-      <c r="T9" t="n">
-        <v/>
-      </c>
-      <c r="U9" t="n">
-        <v/>
-      </c>
-      <c r="V9" t="n">
-        <v/>
-      </c>
-      <c r="W9" t="n">
-        <v/>
-      </c>
-      <c r="X9" t="n">
-        <v/>
-      </c>
-      <c r="Y9" t="n">
-        <v/>
       </c>
     </row>
     <row r="10">
@@ -1092,65 +1029,65 @@
       <c r="G10" t="n">
         <v/>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H10" t="n">
+        <v/>
+      </c>
+      <c r="I10" t="n">
+        <v/>
+      </c>
+      <c r="J10" t="n">
+        <v/>
+      </c>
+      <c r="K10" t="n">
+        <v/>
+      </c>
+      <c r="L10" t="n">
+        <v/>
+      </c>
+      <c r="M10" t="n">
+        <v/>
+      </c>
+      <c r="N10" t="n">
+        <v/>
+      </c>
+      <c r="O10" t="n">
+        <v/>
+      </c>
+      <c r="P10" t="n">
+        <v/>
+      </c>
+      <c r="Q10" t="n">
+        <v/>
+      </c>
+      <c r="R10" t="n">
+        <v/>
+      </c>
+      <c r="S10" t="n">
+        <v/>
+      </c>
+      <c r="T10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="I10" t="n">
+      <c r="U10" t="n">
         <v>149.841197129332</v>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="K10" t="n">
+      <c r="W10" t="n">
         <v>139.038498540059</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M10" t="n">
+      <c r="Y10" t="n">
         <v>135.008704522271</v>
-      </c>
-      <c r="N10" t="n">
-        <v/>
-      </c>
-      <c r="O10" t="n">
-        <v/>
-      </c>
-      <c r="P10" t="n">
-        <v/>
-      </c>
-      <c r="Q10" t="n">
-        <v/>
-      </c>
-      <c r="R10" t="n">
-        <v/>
-      </c>
-      <c r="S10" t="n">
-        <v/>
-      </c>
-      <c r="T10" t="n">
-        <v/>
-      </c>
-      <c r="U10" t="n">
-        <v/>
-      </c>
-      <c r="V10" t="n">
-        <v/>
-      </c>
-      <c r="W10" t="n">
-        <v/>
-      </c>
-      <c r="X10" t="n">
-        <v/>
-      </c>
-      <c r="Y10" t="n">
-        <v/>
       </c>
     </row>
     <row r="11">
@@ -1175,65 +1112,65 @@
       <c r="G11" t="n">
         <v/>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="H11" t="n">
+        <v/>
+      </c>
+      <c r="I11" t="n">
+        <v/>
+      </c>
+      <c r="J11" t="n">
+        <v/>
+      </c>
+      <c r="K11" t="n">
+        <v/>
+      </c>
+      <c r="L11" t="n">
+        <v/>
+      </c>
+      <c r="M11" t="n">
+        <v/>
+      </c>
+      <c r="N11" t="n">
+        <v/>
+      </c>
+      <c r="O11" t="n">
+        <v/>
+      </c>
+      <c r="P11" t="n">
+        <v/>
+      </c>
+      <c r="Q11" t="n">
+        <v/>
+      </c>
+      <c r="R11" t="n">
+        <v/>
+      </c>
+      <c r="S11" t="n">
+        <v/>
+      </c>
+      <c r="T11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="I11" t="n">
+      <c r="U11" t="n">
         <v>142.009467094212</v>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="K11" t="n">
+      <c r="W11" t="n">
         <v>119.075427433374</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M11" t="n">
+      <c r="Y11" t="n">
         <v>116.492349540972</v>
-      </c>
-      <c r="N11" t="n">
-        <v/>
-      </c>
-      <c r="O11" t="n">
-        <v/>
-      </c>
-      <c r="P11" t="n">
-        <v/>
-      </c>
-      <c r="Q11" t="n">
-        <v/>
-      </c>
-      <c r="R11" t="n">
-        <v/>
-      </c>
-      <c r="S11" t="n">
-        <v/>
-      </c>
-      <c r="T11" t="n">
-        <v/>
-      </c>
-      <c r="U11" t="n">
-        <v/>
-      </c>
-      <c r="V11" t="n">
-        <v/>
-      </c>
-      <c r="W11" t="n">
-        <v/>
-      </c>
-      <c r="X11" t="n">
-        <v/>
-      </c>
-      <c r="Y11" t="n">
-        <v/>
       </c>
     </row>
     <row r="12">
@@ -1258,65 +1195,65 @@
       <c r="G12" t="n">
         <v/>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="H12" t="n">
+        <v/>
+      </c>
+      <c r="I12" t="n">
+        <v/>
+      </c>
+      <c r="J12" t="n">
+        <v/>
+      </c>
+      <c r="K12" t="n">
+        <v/>
+      </c>
+      <c r="L12" t="n">
+        <v/>
+      </c>
+      <c r="M12" t="n">
+        <v/>
+      </c>
+      <c r="N12" t="n">
+        <v/>
+      </c>
+      <c r="O12" t="n">
+        <v/>
+      </c>
+      <c r="P12" t="n">
+        <v/>
+      </c>
+      <c r="Q12" t="n">
+        <v/>
+      </c>
+      <c r="R12" t="n">
+        <v/>
+      </c>
+      <c r="S12" t="n">
+        <v/>
+      </c>
+      <c r="T12" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="I12" t="n">
+      <c r="U12" t="n">
         <v>113.784796031986</v>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="K12" t="n">
+      <c r="W12" t="n">
         <v>68.716096474202</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="M12" t="n">
+      <c r="Y12" t="n">
         <v>47.1764705882352</v>
-      </c>
-      <c r="N12" t="n">
-        <v/>
-      </c>
-      <c r="O12" t="n">
-        <v/>
-      </c>
-      <c r="P12" t="n">
-        <v/>
-      </c>
-      <c r="Q12" t="n">
-        <v/>
-      </c>
-      <c r="R12" t="n">
-        <v/>
-      </c>
-      <c r="S12" t="n">
-        <v/>
-      </c>
-      <c r="T12" t="n">
-        <v/>
-      </c>
-      <c r="U12" t="n">
-        <v/>
-      </c>
-      <c r="V12" t="n">
-        <v/>
-      </c>
-      <c r="W12" t="n">
-        <v/>
-      </c>
-      <c r="X12" t="n">
-        <v/>
-      </c>
-      <c r="Y12" t="n">
-        <v/>
       </c>
     </row>
   </sheetData>
